--- a/application/controllers/listo_listo.xlsx
+++ b/application/controllers/listo_listo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F00237D6-56F8-4831-B617-FAEE817F8630}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC031B1-3460-45CE-B288-C37DE7BD3B75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario-17" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="3274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="3276">
   <si>
     <t>Miercoles 20 de Febrero del 2019</t>
   </si>
@@ -9842,12 +9842,18 @@
   </si>
   <si>
     <t> 231,40 </t>
+  </si>
+  <si>
+    <t>EMP-PRUEBA</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -10813,11 +10819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1638"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1639"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1624" workbookViewId="0">
+      <selection activeCell="E1634" sqref="E1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -50021,49 +50027,67 @@
     </row>
     <row r="1637" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1637" s="3" t="s">
-        <v>3267</v>
+        <v>3274</v>
       </c>
       <c r="B1637" s="3" t="s">
-        <v>3268</v>
+        <v>3275</v>
       </c>
       <c r="C1637" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D1637" s="3"/>
       <c r="E1637" s="3">
-        <v>0</v>
-      </c>
-      <c r="F1637" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1637" s="3">
-        <v>0</v>
-      </c>
-      <c r="H1637" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1638" s="5"/>
-      <c r="B1638" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1637" s="3"/>
+      <c r="G1637" s="3"/>
+      <c r="H1637" s="3"/>
+    </row>
+    <row r="1638" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1638" s="3" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1638" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C1638" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1638" s="3"/>
+      <c r="E1638" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1638" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1638" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1638" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1639" s="5"/>
+      <c r="B1639" s="5" t="s">
         <v>3269</v>
       </c>
-      <c r="C1638" s="5" t="s">
+      <c r="C1639" s="5" t="s">
         <v>3270</v>
       </c>
-      <c r="D1638" s="5" t="s">
+      <c r="D1639" s="5" t="s">
         <v>3271</v>
       </c>
-      <c r="E1638" s="5" t="s">
+      <c r="E1639" s="5" t="s">
         <v>3272</v>
       </c>
-      <c r="F1638" s="5" t="s">
+      <c r="F1639" s="5" t="s">
         <v>3273</v>
       </c>
-      <c r="G1638" s="5" t="s">
+      <c r="G1639" s="5" t="s">
         <v>3271</v>
       </c>
-      <c r="H1638" s="6"/>
+      <c r="H1639" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
